--- a/results/Indica_results.xlsx
+++ b/results/Indica_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunhe\Desktop\dbFP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBF1C0C-F46B-465F-B687-29490BAE115C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68871529-BDA0-4C92-8941-DE171DC004FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1210" yWindow="2250" windowWidth="25600" windowHeight="9890" xr2:uid="{F1465FA9-2B83-4F42-8183-5A9D4FD1A7C2}"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="25600" windowHeight="9890" activeTab="3" xr2:uid="{F1465FA9-2B83-4F42-8183-5A9D4FD1A7C2}"/>
   </bookViews>
   <sheets>
     <sheet name="confusion_coding" sheetId="2" r:id="rId1"/>
@@ -307,7 +307,7 @@
   </si>
   <si>
     <r>
-      <t>Set</t>
+      <t>Set Ⅰ</t>
     </r>
     <r>
       <rPr>
@@ -317,17 +317,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">-Set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="1훈고딕굴림 R"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Ⅱ</t>
+      <t>- Set Ⅱ</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -340,7 +330,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,13 +384,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="1훈고딕굴림 R"/>
-      <family val="1"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1075,7 +1058,7 @@
   </sheetPr>
   <dimension ref="A2:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1795,6 +1778,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G17"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="C10:D10"/>
@@ -1807,28 +1812,6 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F10:G11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2446,23 +2429,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="H22:I22"/>
@@ -2479,6 +2445,23 @@
     <mergeCell ref="F10:G11"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3633,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D29F35D-872C-4A3E-A00D-9935F4A15999}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
